--- a/Expenses01.xlsx
+++ b/Expenses01.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RandomData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -348,67 +348,67 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>7</v>
+      </c>
+      <c r="C1">
+        <v>13</v>
+      </c>
+      <c r="D1">
         <v>18</v>
       </c>
-      <c r="B1">
-        <v>19</v>
-      </c>
-      <c r="C1">
-        <v>11</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
       <c r="E1">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -416,67 +416,67 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
         <v>9</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
       <c r="E7">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -484,36 +484,36 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
         <v>16</v>
-      </c>
-      <c r="E9">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Expenses01.xlsx
+++ b/Expenses01.xlsx
@@ -348,121 +348,121 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
         <v>22</v>
       </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -470,50 +470,50 @@
         <v>9</v>
       </c>
       <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
       <c r="E8">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Expenses01.xlsx
+++ b/Expenses01.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="RandomData" sheetId="1" r:id="rId1"/>
+    <sheet name="TSP_Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -340,7 +341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,175 +349,102 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B1">
+        <v>11</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
         <v>10</v>
       </c>
-      <c r="C1">
-        <v>16</v>
-      </c>
-      <c r="D1">
-        <v>21</v>
-      </c>
       <c r="E1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>21</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Expenses01.xlsx
+++ b/Expenses01.xlsx
@@ -349,87 +349,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
         <v>23</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>16</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
         <v>4</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>18</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
